--- a/materials/reading-ranger/stimuli/passage-error-excels/set-11b/tulips_11g.xlsx
+++ b/materials/reading-ranger/stimuli/passage-error-excels/set-11b/tulips_11g.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="310">
   <si>
     <t xml:space="preserve">Tulips</t>
   </si>
@@ -907,7 +907,7 @@
     <t xml:space="preserve">thu</t>
   </si>
   <si>
-    <t xml:space="preserve">asm.</t>
+    <t xml:space="preserve">sm.</t>
   </si>
   <si>
     <t xml:space="preserve">Misproduced Syllable</t>
@@ -3588,9 +3588,11 @@
         <v>268</v>
       </c>
       <c r="LK2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="LL2" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="LL2" s="8"/>
       <c r="LM2" s="8"/>
       <c r="LN2" s="8"/>
       <c r="LO2" s="8"/>
@@ -4610,7 +4612,9 @@
       <c r="LK3" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="LL3" s="11"/>
+      <c r="LL3" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="LM3" s="11"/>
       <c r="LN3" s="11"/>
       <c r="LO3" s="11"/>
@@ -5630,7 +5634,9 @@
       <c r="LK4" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="LL4" s="11"/>
+      <c r="LL4" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="LM4" s="11"/>
       <c r="LN4" s="11"/>
       <c r="LO4" s="11"/>
@@ -6650,7 +6656,9 @@
       <c r="LK5" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="LL5" s="11"/>
+      <c r="LL5" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="LM5" s="11"/>
       <c r="LN5" s="11"/>
       <c r="LO5" s="11"/>
@@ -7670,7 +7678,9 @@
       <c r="LK6" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="LL6" s="16"/>
+      <c r="LL6" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="LM6" s="16"/>
       <c r="LN6" s="16"/>
       <c r="LO6" s="16"/>
@@ -8690,7 +8700,9 @@
       <c r="LK7" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="LL7" s="11"/>
+      <c r="LL7" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="LM7" s="11"/>
       <c r="LN7" s="11"/>
       <c r="LO7" s="11"/>
@@ -9710,7 +9722,9 @@
       <c r="LK8" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="LL8" s="11"/>
+      <c r="LL8" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="LM8" s="11"/>
       <c r="LN8" s="11"/>
       <c r="LO8" s="11"/>
@@ -10730,7 +10744,9 @@
       <c r="LK9" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="LL9" s="11"/>
+      <c r="LL9" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="LM9" s="11"/>
       <c r="LN9" s="11"/>
       <c r="LO9" s="11"/>
@@ -11750,7 +11766,9 @@
       <c r="LK10" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="LL10" s="11"/>
+      <c r="LL10" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="LM10" s="11"/>
       <c r="LN10" s="11"/>
       <c r="LO10" s="11"/>
@@ -12770,7 +12788,9 @@
       <c r="LK11" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="LL11" s="21"/>
+      <c r="LL11" s="21" t="n">
+        <v>0</v>
+      </c>
       <c r="LM11" s="21"/>
       <c r="LN11" s="21"/>
       <c r="LO11" s="21"/>
@@ -13790,7 +13810,9 @@
       <c r="LK12" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="LL12" s="11"/>
+      <c r="LL12" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="LM12" s="11"/>
       <c r="LN12" s="11"/>
       <c r="LO12" s="11"/>
@@ -14810,7 +14832,9 @@
       <c r="LK13" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="LL13" s="11"/>
+      <c r="LL13" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="LM13" s="11"/>
       <c r="LN13" s="11"/>
       <c r="LO13" s="11"/>
@@ -15830,7 +15854,9 @@
       <c r="LK14" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="LL14" s="11"/>
+      <c r="LL14" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="LM14" s="11"/>
       <c r="LN14" s="11"/>
       <c r="LO14" s="11"/>
@@ -19675,7 +19701,7 @@
     <mergeCell ref="KS1:KT1"/>
     <mergeCell ref="KU1:KW1"/>
     <mergeCell ref="LB1:LF1"/>
-    <mergeCell ref="LH1:LK1"/>
+    <mergeCell ref="LH1:LL1"/>
     <mergeCell ref="QB1:QD1"/>
     <mergeCell ref="QF1:QH1"/>
     <mergeCell ref="QJ1:QL1"/>
@@ -19690,7 +19716,7 @@
     <mergeCell ref="RO1:RR1"/>
     <mergeCell ref="RS1:RT1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:LK14">
+  <conditionalFormatting sqref="B3:LL14">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
